--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_300__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_300__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,40 +6118,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-0.5317248106002808</c:v>
+                  <c:v>-0.5317182540893555</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39.20254898071289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01119933184236288</c:v>
+                  <c:v>0.01120446063578129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.524540066719055</c:v>
+                  <c:v>-1.524538636207581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.20240783691406</c:v>
+                  <c:v>37.2024040222168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5261848568916321</c:v>
+                  <c:v>-0.5261842608451843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.2355524003505707</c:v>
+                  <c:v>-0.2355525493621826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.78388977050781</c:v>
+                  <c:v>41.78389358520508</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>49.29006958007812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0062370300293</c:v>
+                  <c:v>48.00623321533203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.855335712432861</c:v>
+                  <c:v>3.855342626571655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.338721036911011</c:v>
+                  <c:v>3.338723421096802</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.344208717346191</c:v>
@@ -6160,16 +6160,16 @@
                   <c:v>47.14743804931641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.09541702270508</c:v>
+                  <c:v>40.09540557861328</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>50.43560028076172</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.2630500793457</c:v>
+                  <c:v>49.26304626464844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.0807466506958</c:v>
+                  <c:v>12.08075141906738</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50.01076126098633</c:v>
@@ -6178,13 +6178,13 @@
                   <c:v>50.68853759765625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.325200080871582</c:v>
+                  <c:v>6.325201988220215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.103309631347656</c:v>
+                  <c:v>5.103312492370605</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.1854852139949799</c:v>
+                  <c:v>-0.1854850798845291</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>42.21924209594727</c:v>
@@ -6193,13 +6193,13 @@
                   <c:v>51.44218444824219</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.224423408508301</c:v>
+                  <c:v>3.224429130554199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.57543182373047</c:v>
+                  <c:v>51.57542037963867</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.833252191543579</c:v>
+                  <c:v>2.833251237869263</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>52.14255523681641</c:v>
@@ -6211,64 +6211,64 @@
                   <c:v>49.6828498840332</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.148856163024902</c:v>
+                  <c:v>1.14885139465332</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.57619953155518</c:v>
+                  <c:v>14.57619667053223</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6293771266937256</c:v>
+                  <c:v>0.6293845176696777</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.1445367783308029</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.00948524475098</c:v>
+                  <c:v>16.00948143005371</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9814274907112122</c:v>
+                  <c:v>0.9814307689666748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4912603199481964</c:v>
+                  <c:v>0.4912693798542023</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>50.35226058959961</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44.20801544189453</c:v>
+                  <c:v>44.20801162719727</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.1237496957182884</c:v>
+                  <c:v>-0.1237553954124451</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.298633575439453</c:v>
+                  <c:v>2.29862642288208</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.819547176361084</c:v>
+                  <c:v>1.819561362266541</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53.63796997070312</c:v>
+                  <c:v>53.63797378540039</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43.61933898925781</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.7597748637199402</c:v>
+                  <c:v>-0.7597740292549133</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44.18146514892578</c:v>
+                  <c:v>44.18148040771484</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.03398895263672</c:v>
+                  <c:v>34.03398513793945</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>36.16350555419922</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41.37387847900391</c:v>
+                  <c:v>41.37387084960938</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44.44536590576172</c:v>
+                  <c:v>44.44536972045898</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>88.88322448730469</c:v>
@@ -6277,79 +6277,79 @@
                   <c:v>-1.174940586090088</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.6320133209228516</c:v>
+                  <c:v>0.6320141553878784</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>49.47722625732422</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50.73561477661133</c:v>
+                  <c:v>50.7356071472168</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>27.95088386535645</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.610335469245911</c:v>
+                  <c:v>1.610339999198914</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>51.42684555053711</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>23.69894599914551</c:v>
+                  <c:v>23.69894218444824</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56.01394271850586</c:v>
+                  <c:v>56.01393127441406</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.56110572814941</c:v>
+                  <c:v>29.56110191345215</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.050779461860657</c:v>
+                  <c:v>-1.050784587860107</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>49.47435760498047</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38.09782791137695</c:v>
+                  <c:v>38.09782028198242</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.4986351132392883</c:v>
+                  <c:v>0.4986342787742615</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.482994198799133</c:v>
+                  <c:v>1.482995867729187</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.200504064559937</c:v>
+                  <c:v>1.200499176979065</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>27.7144718170166</c:v>
+                  <c:v>27.71446800231934</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-0.8132018446922302</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.864941120147705</c:v>
+                  <c:v>5.864940643310547</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.2398559749126434</c:v>
+                  <c:v>0.2398593872785568</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>44.35218811035156</c:v>
+                  <c:v>44.35217666625977</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>36.02756881713867</c:v>
+                  <c:v>36.02757263183594</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.7404530644416809</c:v>
+                  <c:v>-0.7404555082321167</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.673290252685547</c:v>
+                  <c:v>1.673299312591553</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>41.29447555541992</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.418628454208374</c:v>
+                  <c:v>-1.418626427650452</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>47.68777847290039</c:v>
@@ -6358,73 +6358,73 @@
                   <c:v>12.77447509765625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>29.22484397888184</c:v>
+                  <c:v>29.22484016418457</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.421771049499512</c:v>
+                  <c:v>2.421764135360718</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8165977597236633</c:v>
+                  <c:v>0.8165977001190186</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.92824649810791</c:v>
+                  <c:v>5.928247451782227</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>43.99845886230469</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29.78776550292969</c:v>
+                  <c:v>29.78776359558105</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>40.69049453735352</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.5768227577209473</c:v>
+                  <c:v>-0.5768250226974487</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>41.40362167358398</c:v>
+                  <c:v>41.40361404418945</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.1367526650428772</c:v>
+                  <c:v>-0.1367475390434265</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.3511601686477661</c:v>
+                  <c:v>0.351161390542984</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>50.88789749145508</c:v>
+                  <c:v>50.88790130615234</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>51.00630569458008</c:v>
+                  <c:v>51.00630950927734</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>32.13816070556641</c:v>
+                  <c:v>32.13816452026367</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.666888236999512</c:v>
+                  <c:v>6.666881561279297</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.3323108553886414</c:v>
+                  <c:v>0.3323160111904144</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.125486850738525</c:v>
+                  <c:v>7.125484466552734</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>44.49364852905273</c:v>
+                  <c:v>44.49365615844727</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45.54999160766602</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.219544410705566</c:v>
+                  <c:v>4.219549179077148</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>49.83310317993164</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.606771230697632</c:v>
+                  <c:v>2.606760025024414</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.67371392250061</c:v>
+                  <c:v>2.673715353012085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.5317248106002808</v>
+        <v>-0.5317182540893555</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01119933184236288</v>
+        <v>0.01120446063578129</v>
       </c>
       <c r="G4">
         <v>89</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.524540066719055</v>
+        <v>-1.524538636207581</v>
       </c>
       <c r="G5">
         <v>89</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.20240783691406</v>
+        <v>37.2024040222168</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.5261848568916321</v>
+        <v>-0.5261842608451843</v>
       </c>
       <c r="G7">
         <v>89</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2355524003505707</v>
+        <v>-0.2355525493621826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>40.0699</v>
       </c>
       <c r="F9">
-        <v>41.78388977050781</v>
+        <v>41.78389358520508</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.0062370300293</v>
+        <v>48.00623321533203</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.855335712432861</v>
+        <v>3.855342626571655</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.338721036911011</v>
+        <v>3.338723421096802</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>40.09541702270508</v>
+        <v>40.09540557861328</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>49.2630500793457</v>
+        <v>49.26304626464844</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12.0807466506958</v>
+        <v>12.08075141906738</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>6.325200080871582</v>
+        <v>6.325201988220215</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>50.398</v>
       </c>
       <c r="F23">
-        <v>5.103309631347656</v>
+        <v>5.103312492370605</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.1854852139949799</v>
+        <v>-0.1854850798845291</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3.224423408508301</v>
+        <v>3.224429130554199</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>51.57543182373047</v>
+        <v>51.57542037963867</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.833252191543579</v>
+        <v>2.833251237869263</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.148856163024902</v>
+        <v>1.14885139465332</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>14.57619953155518</v>
+        <v>14.57619667053223</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.6293771266937256</v>
+        <v>0.6293845176696777</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>16.00948524475098</v>
+        <v>16.00948143005371</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.9814274907112122</v>
+        <v>0.9814307689666748</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.4912603199481964</v>
+        <v>0.4912693798542023</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>44.20801544189453</v>
+        <v>44.20801162719727</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-0.1237496957182884</v>
+        <v>-0.1237553954124451</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2.298633575439453</v>
+        <v>2.29862642288208</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.819547176361084</v>
+        <v>1.819561362266541</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>53.63796997070312</v>
+        <v>53.63797378540039</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.7597748637199402</v>
+        <v>-0.7597740292549133</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>44.18146514892578</v>
+        <v>44.18148040771484</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>34.03398895263672</v>
+        <v>34.03398513793945</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>41.37387847900391</v>
+        <v>41.37387084960938</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>44.44536590576172</v>
+        <v>44.44536972045898</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>0.6320133209228516</v>
+        <v>0.6320141553878784</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>48.2681</v>
       </c>
       <c r="F57">
-        <v>50.73561477661133</v>
+        <v>50.7356071472168</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>1.610335469245911</v>
+        <v>1.610339999198914</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>23.69894599914551</v>
+        <v>23.69894218444824</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>56.01394271850586</v>
+        <v>56.01393127441406</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>29.56110572814941</v>
+        <v>29.56110191345215</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-1.050779461860657</v>
+        <v>-1.050784587860107</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>45.7573</v>
       </c>
       <c r="F66">
-        <v>38.09782791137695</v>
+        <v>38.09782028198242</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.4986351132392883</v>
+        <v>0.4986342787742615</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.482994198799133</v>
+        <v>1.482995867729187</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.200504064559937</v>
+        <v>1.200499176979065</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>27.7144718170166</v>
+        <v>27.71446800231934</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>5.864941120147705</v>
+        <v>5.864940643310547</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.2398559749126434</v>
+        <v>0.2398593872785568</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>44.35218811035156</v>
+        <v>44.35217666625977</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>36.02756881713867</v>
+        <v>36.02757263183594</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-0.7404530644416809</v>
+        <v>-0.7404555082321167</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.673290252685547</v>
+        <v>1.673299312591553</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-1.418628454208374</v>
+        <v>-1.418626427650452</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>29.22484397888184</v>
+        <v>29.22484016418457</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>2.421771049499512</v>
+        <v>2.421764135360718</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.8165977597236633</v>
+        <v>0.8165977001190186</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>5.92824649810791</v>
+        <v>5.928247451782227</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>29.78776550292969</v>
+        <v>29.78776359558105</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.5768227577209473</v>
+        <v>-0.5768250226974487</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>41.40362167358398</v>
+        <v>41.40361404418945</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.1367526650428772</v>
+        <v>-0.1367475390434265</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.3511601686477661</v>
+        <v>0.351161390542984</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>48.8924</v>
       </c>
       <c r="F93">
-        <v>50.88789749145508</v>
+        <v>50.88790130615234</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>51.00630569458008</v>
+        <v>51.00630950927734</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>32.13816070556641</v>
+        <v>32.13816452026367</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>6.666888236999512</v>
+        <v>6.666881561279297</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.3323108553886414</v>
+        <v>0.3323160111904144</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>7.125486850738525</v>
+        <v>7.125484466552734</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>44.49364852905273</v>
+        <v>44.49365615844727</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>4.219544410705566</v>
+        <v>4.219549179077148</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>2.606771230697632</v>
+        <v>2.606760025024414</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>2.67371392250061</v>
+        <v>2.673715353012085</v>
       </c>
     </row>
     <row r="105" spans="1:6">
